--- a/biology/Botanique/Palicourea_tomentosa/Palicourea_tomentosa.xlsx
+++ b/biology/Botanique/Palicourea_tomentosa/Palicourea_tomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea tomentosa (anciennement Psychotria poeppigiana Müll. Arg.[3]) est une espèce de plantes de la famille des Rubiaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea tomentosa (anciennement Psychotria poeppigiana Müll. Arg.) est une espèce de plantes de la famille des Rubiaceae.
 Cette espèces très voyante avec ses bractées aux couleurs vives, ses fleurs jaunes et ses fruits bleus, est une des les plus fréquemment collectées par les botanistes dans les néotropiques.
-En Guyane, on l'appelle Radié zoré (créole), Apɨakwalaɨ poã (Wayãpi), Maoksikan aβey (Palikur), Lábios de puta (Portugais)[4], Lebi koko ede (Aluku)[5].
-Au Suriname, on l'appelle Koejatta enaka, Paipayodapiri, Pakira ponapiri (Karib)[6].
-Au Venezuela, on l'appelle Kowa-wakaanamahu (Yanomami), Oreja de picure, Oreja de rabo pelado, Tulipán, Tulipán rojo montañero (Espagnol)[7].
-Ailleurs, on l'appelle encore Kissing lips[8], Hot Lips (Anglais), Labios Ardientes (Espagnol).
+En Guyane, on l'appelle Radié zoré (créole), Apɨakwalaɨ poã (Wayãpi), Maoksikan aβey (Palikur), Lábios de puta (Portugais), Lebi koko ede (Aluku).
+Au Suriname, on l'appelle Koejatta enaka, Paipayodapiri, Pakira ponapiri (Karib).
+Au Venezuela, on l'appelle Kowa-wakaanamahu (Yanomami), Oreja de picure, Oreja de rabo pelado, Tulipán, Tulipán rojo montañero (Espagnol).
+Ailleurs, on l'appelle encore Kissing lips, Hot Lips (Anglais), Labios Ardientes (Espagnol).
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea tomentosa est un sous-arbrisseau ou un arbuste érigé, simple ou peu ramifié, strigeux ou hirsute, pouvant atteindre 0,3 à 3,5 m de haut.
 Les tige sont cylindriques, densément velues, devenant glabrescentes.
@@ -539,7 +553,7 @@
 L'ovaire est densément villeux. 
 Le style est glabre, exsert, long de 16 mm, avec deux lobes filiformes longs de 0,5 mm. 
 Les fruits sont des drupes bleu vif, de forme ovoïde à ellipsoïde, plus ou moins comprimées, mesurant 5,5–7(8) × 3 mm.
-Ils contiennent 2 pyrènes présentant des sillons peu profonds[6],[7].
+Ils contiennent 2 pyrènes présentant des sillons peu profonds,.
 </t>
         </is>
       </c>
@@ -568,9 +582,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea tomentosa est présent du Mexique à la Bolivie et au Brésil, mais est absent aux Antilles (sauf à Trinidad)[6], en passant par l'Amérique centrale, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et l'Argentine[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea tomentosa est présent du Mexique à la Bolivie et au Brésil, mais est absent aux Antilles (sauf à Trinidad), en passant par l'Amérique centrale, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et l'Argentine.
 </t>
         </is>
       </c>
@@ -599,13 +615,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea tomentosa est un sous-arbrisseau commun dans le sous-bois des forêts ancienne[4], autour de 50–1 300 m au Venezuela[7].
-On a recensé 15 champignons endophytes sur Palicourea tomentosa, dont Arthrinium arundinis dans ses feuilles et Fusarium proliferatum dans son bourgeon[9],[10].
-Palicourea tomentosa s'installe sur un site minier abandonné en Colombie, lors des phases de succession les plus tardives (au-delà de 30 ans)[11].
-Les fleurs hétérostyles[12] de Palicourea tomentosa sont pollinisées par les insectes (entomophilie) et d'autres animaux : elles attirent particulièrement l'abeille Trigona spinipes, mais est aussi le colibri Phaethornis striigularis et le papillon Heliconius erato venus dans le Chocó (Colombie)[13],[14].
-Palicourea tomentosa est butiné par les colibris dans le centre du Brésil[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea tomentosa est un sous-arbrisseau commun dans le sous-bois des forêts ancienne, autour de 50–1 300 m au Venezuela.
+On a recensé 15 champignons endophytes sur Palicourea tomentosa, dont Arthrinium arundinis dans ses feuilles et Fusarium proliferatum dans son bourgeon,.
+Palicourea tomentosa s'installe sur un site minier abandonné en Colombie, lors des phases de succession les plus tardives (au-delà de 30 ans).
+Les fleurs hétérostyles de Palicourea tomentosa sont pollinisées par les insectes (entomophilie) et d'autres animaux : elles attirent particulièrement l'abeille Trigona spinipes, mais est aussi le colibri Phaethornis striigularis et le papillon Heliconius erato venus dans le Chocó (Colombie),.
+Palicourea tomentosa est butiné par les colibris dans le centre du Brésil.
 </t>
         </is>
       </c>
@@ -634,21 +652,23 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Créoles de l'Oyapock et les Wayãpi tirent le jus de ses bractées rouges gorgées de sève de Palicourea tomentosa et le versent dans le conduit auditif comme antalgique en cas de douleurs aux oreilles. 
-La décoction des inflorescences sert de remède Palikur antitussif en cas de coqueluche[4].
-Elle est aussi utilisée comme alexitère chez les Aluku[4], qui la considèrent aussi comme une plante magique capable d'attirer la divinité Kantaasi[5].
-La décoction de Palicourea tomentosa est un remède des amérindiens du nord-ouest du Guyana contre la grippe, la toux et la tuberculose[16].
-En Colombie, les Chami soignent les hémorroïdes par bain de siège de décoction de Palicourea tomentosa[17].
-L'extrait de Palicourea tomentosa présenterait des propriétés anti-plasmodiales[18].
+La décoction des inflorescences sert de remède Palikur antitussif en cas de coqueluche.
+Elle est aussi utilisée comme alexitère chez les Aluku, qui la considèrent aussi comme une plante magique capable d'attirer la divinité Kantaasi.
+La décoction de Palicourea tomentosa est un remède des amérindiens du nord-ouest du Guyana contre la grippe, la toux et la tuberculose.
+En Colombie, les Chami soignent les hémorroïdes par bain de siège de décoction de Palicourea tomentosa.
+L'extrait de Palicourea tomentosa présenterait des propriétés anti-plasmodiales.
 Palicourea tomentosa est utilisée pour fabriquer des talismans magiques pour avoir de la chance à la chasse.
 Au Suriname on l'utilise pour soigner les maux de tête, les entorses, les rhumatismes, les douleurs musculaires et les contusions.
 Les Wayana du Suriname frottent l'écorce de la tige râpée sur les éruptions cutanées (appelées poispoisi).
-Cette espèce qui contient des taux élevés de DMT a été utilisée comme ingrédient de l'ayahuasca[19].
-Les amérindiens Kuna et Ngäbe Buglé (Guaymí) du Panama emploient Palicourea tomentosa pour le traitement de la dyspnée (propriétés vasoactives)[20].
-Palicourea tomentosa fait partie des plantes employées par les guérisseurs de la région d'Antioquia et Chocó (nord-ouest de la Colombie) pour soigner les envenimations par Bothrops atrox [21].
-L'extrait des galles de Palicourea tomentosa aurait des propriétés incesticides et antibactériennes[22].
+Cette espèce qui contient des taux élevés de DMT a été utilisée comme ingrédient de l'ayahuasca.
+Les amérindiens Kuna et Ngäbe Buglé (Guaymí) du Panama emploient Palicourea tomentosa pour le traitement de la dyspnée (propriétés vasoactives).
+Palicourea tomentosa fait partie des plantes employées par les guérisseurs de la région d'Antioquia et Chocó (nord-ouest de la Colombie) pour soigner les envenimations par Bothrops atrox .
+L'extrait des galles de Palicourea tomentosa aurait des propriétés incesticides et antibactériennes.
 </t>
         </is>
       </c>
@@ -677,9 +697,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[23] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « TAPOGOMEA (tomentoſa) floribus capitatis, involucro amplo purpureo-violaceo obvolutis. (Tabula 61.)
 Fruticulus tri vel quadri-pedalis. Caulis erectus, ramoſus, nodoſus, tomentoſus. Folia ampla, ovata, acuta, villoſa, integerrima, petiolata; petiolislongis, baſi adnexis. Stipulæ amplexicaules, bilobæ, villoſæ, lobis oppoſitis, bifidis. Flores terminates, corymboſi. Involucrum amplum, patens, monophyllum, concavum, villoſum, violaceum, aut purpuræſcens. Perianthium, corolla, receptaculum, fructus ut in præcedentibus.
 Floret Junio, Julio, &amp; Auguſto.
